--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1406.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1406.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.973626928480487</v>
+        <v>1.189719438552856</v>
       </c>
       <c r="B1">
-        <v>2.581343677908022</v>
+        <v>1.806123971939087</v>
       </c>
       <c r="C1">
-        <v>2.721380531346088</v>
+        <v>6.611209392547607</v>
       </c>
       <c r="D1">
-        <v>3.338750361163411</v>
+        <v>2.284949064254761</v>
       </c>
       <c r="E1">
-        <v>0.9111076633686278</v>
+        <v>1.192989826202393</v>
       </c>
     </row>
   </sheetData>
